--- a/CASUAL/LA ONT/CABANTING, AIRA PEREY.xlsx
+++ b/CASUAL/LA ONT/CABANTING, AIRA PEREY.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>PERIOD</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>UT(0-2-0)</t>
+  </si>
+  <si>
+    <t>UT(0-3-0)</t>
   </si>
 </sst>
 </file>
@@ -940,7 +943,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -983,7 +986,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1047,7 +1050,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1107,7 +1110,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1173,7 +1176,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1236,7 +1239,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1334,7 +1337,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1393,7 +1396,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1458,7 +1461,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1501,7 +1504,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1576,7 +1579,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1762,7 +1765,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1828,7 +1831,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1886,7 +1889,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1952,7 +1955,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2008,7 +2011,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2083,7 +2086,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2126,7 +2129,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2192,7 +2195,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2248,7 +2251,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2696,7 +2699,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A25" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2861,7 +2864,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>20</v>
+        <v>19.625</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3366,11 +3369,15 @@
       <c r="A34" s="40">
         <v>44682</v>
       </c>
-      <c r="B34" s="20"/>
+      <c r="B34" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="C34" s="13">
         <v>1.25</v>
       </c>
-      <c r="D34" s="39"/>
+      <c r="D34" s="39">
+        <v>0.375</v>
+      </c>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
       <c r="G34" s="13">
@@ -5323,12 +5330,12 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/CASUAL/LA ONT/CABANTING, AIRA PEREY.xlsx
+++ b/CASUAL/LA ONT/CABANTING, AIRA PEREY.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>UT(0-3-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-53)</t>
   </si>
 </sst>
 </file>
@@ -2347,7 +2350,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2694,12 +2697,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K135"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A25" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2864,7 +2867,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>19.625</v>
+        <v>19.265000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3457,11 +3460,15 @@
       <c r="A38" s="40">
         <v>44805</v>
       </c>
-      <c r="B38" s="20"/>
+      <c r="B38" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C38" s="13">
         <v>1.25</v>
       </c>
-      <c r="D38" s="39"/>
+      <c r="D38" s="39">
+        <v>0.25</v>
+      </c>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
       <c r="G38" s="13">
@@ -3572,12 +3579,14 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="20"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C43" s="13"/>
-      <c r="D43" s="39"/>
+      <c r="D43" s="39">
+        <v>0.11000000000000001</v>
+      </c>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
       <c r="G43" s="13" t="str">
@@ -3590,19 +3599,17 @@
       <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="40">
-        <v>44957</v>
+      <c r="A44" s="48" t="s">
+        <v>55</v>
       </c>
       <c r="B44" s="20"/>
-      <c r="C44" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C44" s="13"/>
       <c r="D44" s="39"/>
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G44" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H44" s="39"/>
       <c r="I44" s="9"/>
@@ -3611,11 +3618,9 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
-        <v>44985</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>60</v>
-      </c>
+        <v>44957</v>
+      </c>
+      <c r="B45" s="20"/>
       <c r="C45" s="13">
         <v>1.25</v>
       </c>
@@ -3629,16 +3634,14 @@
       <c r="H45" s="39"/>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="49">
-        <v>44970</v>
-      </c>
+      <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>45016</v>
+        <v>44985</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46" s="13">
         <v>1.25</v>
@@ -3650,20 +3653,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H46" s="39">
-        <v>2</v>
-      </c>
+      <c r="H46" s="39"/>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="20" t="s">
-        <v>62</v>
+      <c r="K46" s="49">
+        <v>44970</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
-        <v>45046</v>
-      </c>
-      <c r="B47" s="20"/>
+        <v>45016</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C47" s="13">
         <v>1.25</v>
       </c>
@@ -3674,14 +3677,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H47" s="39"/>
+      <c r="H47" s="39">
+        <v>2</v>
+      </c>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="20"/>
+      <c r="K47" s="20" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13">
@@ -3701,11 +3708,9 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
-        <v>45107</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>60</v>
-      </c>
+        <v>45077</v>
+      </c>
+      <c r="B49" s="20"/>
       <c r="C49" s="13">
         <v>1.25</v>
       </c>
@@ -3719,16 +3724,14 @@
       <c r="H49" s="39"/>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="49">
-        <v>45102</v>
-      </c>
+      <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
-        <v>45138</v>
+        <v>45107</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C50" s="13">
         <v>1.25</v>
@@ -3740,73 +3743,71 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H50" s="39">
-        <v>1</v>
-      </c>
+      <c r="H50" s="39"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
       <c r="K50" s="49">
-        <v>45112</v>
+        <v>45102</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
+      <c r="A51" s="40">
+        <v>45138</v>
+      </c>
       <c r="B51" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="39">
-        <v>1.5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C51" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D51" s="39"/>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H51" s="39"/>
+      <c r="G51" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H51" s="39">
+        <v>1</v>
+      </c>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="49"/>
+      <c r="K51" s="49">
+        <v>45112</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="40">
-        <v>45169</v>
-      </c>
+      <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="13">
-        <v>1.25</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C52" s="13"/>
       <c r="D52" s="39">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G52" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H52" s="39"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="49">
-        <v>45156</v>
-      </c>
+      <c r="K52" s="49"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
-        <v>45199</v>
+        <v>45169</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C53" s="13">
         <v>1.25</v>
       </c>
       <c r="D53" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
@@ -3817,137 +3818,143 @@
       <c r="H53" s="39"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="20" t="s">
-        <v>65</v>
+      <c r="K53" s="49">
+        <v>45156</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
+      <c r="A54" s="40">
+        <v>45199</v>
+      </c>
       <c r="B54" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="13"/>
+      <c r="C54" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D54" s="39">
         <v>2</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G54" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H54" s="39"/>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
       <c r="K54" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="40">
-        <v>45230</v>
-      </c>
+      <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="13">
-        <v>1.25</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C55" s="13"/>
       <c r="D55" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G55" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H55" s="39"/>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="49">
-        <v>45225</v>
+      <c r="K55" s="20" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
+      <c r="A56" s="40">
+        <v>45230</v>
+      </c>
       <c r="B56" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="C56" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D56" s="39">
+        <v>1</v>
+      </c>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H56" s="39">
-        <v>1</v>
-      </c>
+      <c r="G56" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H56" s="39"/>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
       <c r="K56" s="49">
-        <v>45201</v>
+        <v>45225</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="40">
-        <v>45260</v>
-      </c>
+      <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D57" s="39">
-        <v>1</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="39"/>
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
-      <c r="G57" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H57" s="39"/>
+      <c r="G57" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H57" s="39">
+        <v>1</v>
+      </c>
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
       <c r="K57" s="49">
-        <v>45253</v>
+        <v>45201</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>45291</v>
+        <v>45260</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" s="13"/>
+        <v>64</v>
+      </c>
+      <c r="C58" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D58" s="39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G58" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H58" s="39"/>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="20" t="s">
-        <v>67</v>
+      <c r="K58" s="49">
+        <v>45253</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="20"/>
+      <c r="A59" s="40">
+        <v>45291</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C59" s="13"/>
-      <c r="D59" s="39"/>
+      <c r="D59" s="39">
+        <v>5</v>
+      </c>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
       <c r="G59" s="13" t="str">
@@ -3957,11 +3964,13 @@
       <c r="H59" s="39"/>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="20"/>
+      <c r="K59" s="20" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="40">
-        <v>45322</v>
+      <c r="A60" s="48" t="s">
+        <v>68</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -3979,7 +3988,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -3997,7 +4006,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4015,7 +4024,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4033,7 +4042,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4051,7 +4060,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4069,7 +4078,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4087,7 +4096,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4105,7 +4114,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4123,7 +4132,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4141,7 +4150,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4159,7 +4168,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4177,7 +4186,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4195,7 +4204,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4213,7 +4222,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4231,7 +4240,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4249,7 +4258,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4267,7 +4276,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4285,7 +4294,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4303,7 +4312,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4321,7 +4330,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4339,7 +4348,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4357,7 +4366,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4374,7 +4383,9 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45991</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -5206,20 +5217,36 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="41"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="43"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="43"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="15"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="41"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="43"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5330,12 +5357,12 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/CASUAL/LA ONT/CABANTING, AIRA PEREY.xlsx
+++ b/CASUAL/LA ONT/CABANTING, AIRA PEREY.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -946,7 +946,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -989,7 +989,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1053,7 +1053,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1113,7 +1113,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1179,7 +1179,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1242,7 +1242,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,7 +1340,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1399,7 +1399,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1464,7 +1464,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1507,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1582,7 +1582,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1768,7 +1768,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1834,7 +1834,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1892,7 +1892,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1958,7 +1958,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2014,7 +2014,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2089,7 +2089,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2132,7 +2132,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2198,7 +2198,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2254,7 +2254,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2700,9 +2700,9 @@
   <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A25" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2867,7 +2867,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>19.265000000000001</v>
+        <v>20.515000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2877,7 +2877,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>44.75</v>
+        <v>45</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3951,15 +3951,17 @@
       <c r="B59" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="13"/>
+      <c r="C59" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D59" s="39">
         <v>5</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G59" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H59" s="39"/>
       <c r="I59" s="9"/>
@@ -3990,7 +3992,9 @@
       <c r="A61" s="40">
         <v>45322</v>
       </c>
-      <c r="B61" s="20"/>
+      <c r="B61" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C61" s="13"/>
       <c r="D61" s="39"/>
       <c r="E61" s="9"/>
@@ -3999,10 +4003,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H61" s="39"/>
+      <c r="H61" s="39">
+        <v>1</v>
+      </c>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="20"/>
+      <c r="K61" s="49">
+        <v>45304</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
